--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.dict.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.dict.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95148745-CA4E-674E-9395-08E5459F4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF41A38-FDCB-5A49-96F8-B22681038D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="63900" yWindow="-7100" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.dict.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-12514-kND5curiIf3j/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF41A38-FDCB-5A49-96F8-B22681038D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BEEA28-1F56-324B-989C-6563B7D2174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63900" yWindow="-7100" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="67080" yWindow="-5700" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>code</t>
   </si>
@@ -134,6 +134,69 @@
   </si>
   <si>
     <t>ec1d2d3f-f34a-4f6e-b9e4-220e128555be</t>
+  </si>
+  <si>
+    <t>组类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.tabular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1ec6def-5adf-4f03-8b26-aadc4fee9e2e</t>
+  </si>
+  <si>
+    <t>zero.group.type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.group.type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a594235a-b1df-4084-8ea3-58cf78f4361e</t>
+  </si>
+  <si>
+    <t>5906cf50-fe31-4319-8a94-9c8383157869</t>
+  </si>
+  <si>
+    <t>b88c89bc-7ea4-4047-a430-1e9da24c4ad8</t>
+  </si>
+  <si>
+    <t>a9ff7b0b-507e-47f1-a471-c8c62a04a8dc</t>
+  </si>
+  <si>
+    <t>固定组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分派组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -637,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -740,19 +803,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -760,19 +823,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -780,19 +843,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="5">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -800,23 +863,111 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.dict.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-12514-kND5curiIf3j/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-12514-TuY3uNVb78NJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BEEA28-1F56-324B-989C-6563B7D2174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93859E7-A60F-3641-A4F4-5B2BC874A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-5700" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="60340" yWindow="-4980" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>code</t>
   </si>
@@ -196,6 +196,30 @@
   </si>
   <si>
     <t>temp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metadata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:dict/zero.group.type/fixed.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:dict/zero.group.type/assignment.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:dict/zero.group.type/project.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:dict/zero.group.type/temp.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +404,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -703,7 +731,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -713,7 +741,7 @@
     <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -732,11 +760,11 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
@@ -757,7 +785,9 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
     </row>
@@ -777,7 +807,9 @@
       <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
     </row>
@@ -797,7 +829,7 @@
       <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" s="14"/>
       <c r="G5"/>
       <c r="H5"/>
     </row>
@@ -817,7 +849,7 @@
       <c r="E6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="14"/>
       <c r="G6"/>
       <c r="H6"/>
     </row>
@@ -837,7 +869,7 @@
       <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="14"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
@@ -857,7 +889,7 @@
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="14"/>
       <c r="G8"/>
       <c r="H8"/>
     </row>
@@ -877,7 +909,7 @@
       <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="14"/>
       <c r="G9"/>
       <c r="H9"/>
     </row>
@@ -897,7 +929,7 @@
       <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" s="14"/>
       <c r="G10"/>
       <c r="H10"/>
     </row>
@@ -917,6 +949,9 @@
       <c r="E11" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="F11" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
@@ -934,6 +969,9 @@
       <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="F12" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
@@ -951,6 +989,9 @@
       <c r="E13" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="F13" s="15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
@@ -967,6 +1008,9 @@
       </c>
       <c r="E14" s="9" t="s">
         <v>46</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.dict.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.dict.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-12514-TuY3uNVb78NJ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-17874-2qSx4fzwCiHM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93859E7-A60F-3641-A4F4-5B2BC874A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ACBD9C-7082-6443-ABEB-3E1DA24CBF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60340" yWindow="-4980" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -935,7 +935,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>33</v>
@@ -944,18 +944,18 @@
         <v>1005</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>33</v>
@@ -964,13 +964,13 @@
         <v>1010</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
